--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H2">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I2">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J2">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.2421187233098</v>
+        <v>18.2502405</v>
       </c>
       <c r="N2">
-        <v>18.2421187233098</v>
+        <v>36.500481</v>
       </c>
       <c r="O2">
-        <v>0.2936539783903066</v>
+        <v>0.2786312431497853</v>
       </c>
       <c r="P2">
-        <v>0.2936539783903066</v>
+        <v>0.2136098924258371</v>
       </c>
       <c r="Q2">
-        <v>2643.331488119966</v>
+        <v>2646.321774486291</v>
       </c>
       <c r="R2">
-        <v>2643.331488119966</v>
+        <v>10585.28709794517</v>
       </c>
       <c r="S2">
-        <v>0.07211527745816039</v>
+        <v>0.06620490310219267</v>
       </c>
       <c r="T2">
-        <v>0.07211527745816039</v>
+        <v>0.03743026181372554</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H3">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I3">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J3">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.0067970736347</v>
+        <v>27.08897866666667</v>
       </c>
       <c r="N3">
-        <v>25.0067970736347</v>
+        <v>81.26693600000002</v>
       </c>
       <c r="O3">
-        <v>0.4025489340823427</v>
+        <v>0.4135745938006323</v>
       </c>
       <c r="P3">
-        <v>0.4025489340823427</v>
+        <v>0.4755943204347743</v>
       </c>
       <c r="Q3">
-        <v>3623.551360692581</v>
+        <v>3927.956680581532</v>
       </c>
       <c r="R3">
-        <v>3623.551360692581</v>
+        <v>23567.74008348919</v>
       </c>
       <c r="S3">
-        <v>0.09885760183112549</v>
+        <v>0.09826846981901588</v>
       </c>
       <c r="T3">
-        <v>0.09885760183112549</v>
+        <v>0.08333705770286365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H4">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I4">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J4">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>11.6391421668904</v>
+        <v>0.01819633333333333</v>
       </c>
       <c r="N4">
-        <v>11.6391421668904</v>
+        <v>0.054589</v>
       </c>
       <c r="O4">
-        <v>0.1873620303759107</v>
+        <v>0.0002778082281948308</v>
       </c>
       <c r="P4">
-        <v>0.1873620303759107</v>
+        <v>0.0003194684042008658</v>
       </c>
       <c r="Q4">
-        <v>1686.542635266005</v>
+        <v>2.638505126319333</v>
       </c>
       <c r="R4">
-        <v>1686.542635266005</v>
+        <v>15.831030757916</v>
       </c>
       <c r="S4">
-        <v>0.04601219734787386</v>
+        <v>6.60093484876833E-05</v>
       </c>
       <c r="T4">
-        <v>0.04601219734787386</v>
+        <v>5.597955167082494E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +714,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H5">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I5">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J5">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.23307801840441</v>
+        <v>12.76807333333333</v>
       </c>
       <c r="N5">
-        <v>7.23307801840441</v>
+        <v>38.30422</v>
       </c>
       <c r="O5">
-        <v>0.11643505715144</v>
+        <v>0.1949335487110041</v>
       </c>
       <c r="P5">
-        <v>0.11643505715144</v>
+        <v>0.2241658216409695</v>
       </c>
       <c r="Q5">
-        <v>1048.092229421023</v>
+        <v>1851.396450377614</v>
       </c>
       <c r="R5">
-        <v>1048.092229421023</v>
+        <v>11108.37870226568</v>
       </c>
       <c r="S5">
-        <v>0.02859401564508152</v>
+        <v>0.04631769416052481</v>
       </c>
       <c r="T5">
-        <v>0.02859401564508152</v>
+        <v>0.0392799476579649</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>283.78659238818</v>
+        <v>145.002022</v>
       </c>
       <c r="H6">
-        <v>283.78659238818</v>
+        <v>290.004044</v>
       </c>
       <c r="I6">
-        <v>0.4809577324997687</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J6">
-        <v>0.4809577324997687</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.2421187233098</v>
+        <v>7.374131</v>
       </c>
       <c r="N6">
-        <v>18.2421187233098</v>
+        <v>14.748262</v>
       </c>
       <c r="O6">
-        <v>0.2936539783903066</v>
+        <v>0.1125828061103835</v>
       </c>
       <c r="P6">
-        <v>0.2936539783903066</v>
+        <v>0.08631049709421805</v>
       </c>
       <c r="Q6">
-        <v>5176.868710428705</v>
+        <v>1069.263905492882</v>
       </c>
       <c r="R6">
-        <v>5176.868710428705</v>
+        <v>4277.055621971528</v>
       </c>
       <c r="S6">
-        <v>0.1412351515861379</v>
+        <v>0.02675053122274608</v>
       </c>
       <c r="T6">
-        <v>0.1412351515861379</v>
+        <v>0.01512394611888593</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H7">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I7">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J7">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.0067970736347</v>
+        <v>18.2502405</v>
       </c>
       <c r="N7">
-        <v>25.0067970736347</v>
+        <v>36.500481</v>
       </c>
       <c r="O7">
-        <v>0.4025489340823427</v>
+        <v>0.2786312431497853</v>
       </c>
       <c r="P7">
-        <v>0.4025489340823427</v>
+        <v>0.2136098924258371</v>
       </c>
       <c r="Q7">
-        <v>7096.593728069503</v>
+        <v>5401.601116555443</v>
       </c>
       <c r="R7">
-        <v>7096.593728069503</v>
+        <v>32409.60669933265</v>
       </c>
       <c r="S7">
-        <v>0.1936090225564424</v>
+        <v>0.1351356747187969</v>
       </c>
       <c r="T7">
-        <v>0.1936090225564424</v>
+        <v>0.1146024716014915</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H8">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I8">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J8">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.6391421668904</v>
+        <v>27.08897866666667</v>
       </c>
       <c r="N8">
-        <v>11.6391421668904</v>
+        <v>81.26693600000002</v>
       </c>
       <c r="O8">
-        <v>0.1873620303759107</v>
+        <v>0.4135745938006323</v>
       </c>
       <c r="P8">
-        <v>0.1873620303759107</v>
+        <v>0.4755943204347743</v>
       </c>
       <c r="Q8">
-        <v>3303.032493863404</v>
+        <v>8017.639954509819</v>
       </c>
       <c r="R8">
-        <v>3303.032493863404</v>
+        <v>72158.75959058836</v>
       </c>
       <c r="S8">
-        <v>0.09011321728615078</v>
+        <v>0.2005829681840683</v>
       </c>
       <c r="T8">
-        <v>0.09011321728615078</v>
+        <v>0.2551580546316698</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +962,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H9">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I9">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J9">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>7.23307801840441</v>
+        <v>0.01819633333333333</v>
       </c>
       <c r="N9">
-        <v>7.23307801840441</v>
+        <v>0.054589</v>
       </c>
       <c r="O9">
-        <v>0.11643505715144</v>
+        <v>0.0002778082281948308</v>
       </c>
       <c r="P9">
-        <v>0.11643505715144</v>
+        <v>0.0003194684042008658</v>
       </c>
       <c r="Q9">
-        <v>2052.650563320837</v>
+        <v>5.385645983709001</v>
       </c>
       <c r="R9">
-        <v>2052.650563320837</v>
+        <v>48.470813853381</v>
       </c>
       <c r="S9">
-        <v>0.05600034107103756</v>
+        <v>0.0001347365138781669</v>
       </c>
       <c r="T9">
-        <v>0.05600034107103756</v>
+        <v>0.0001713959419398834</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7035618027542651</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H10">
-        <v>0.7035618027542651</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I10">
-        <v>0.001192387161347214</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J10">
-        <v>0.001192387161347214</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.2421187233098</v>
+        <v>12.76807333333333</v>
       </c>
       <c r="N10">
-        <v>18.2421187233098</v>
+        <v>38.30422</v>
       </c>
       <c r="O10">
-        <v>0.2936539783903066</v>
+        <v>0.1949335487110041</v>
       </c>
       <c r="P10">
-        <v>0.2936539783903066</v>
+        <v>0.2241658216409695</v>
       </c>
       <c r="Q10">
-        <v>12.83445793502918</v>
+        <v>3779.020839401821</v>
       </c>
       <c r="R10">
-        <v>12.83445793502918</v>
+        <v>34011.18755461639</v>
       </c>
       <c r="S10">
-        <v>0.0003501492337111338</v>
+        <v>0.09454243656455255</v>
       </c>
       <c r="T10">
-        <v>0.0003501492337111338</v>
+        <v>0.1202657653954555</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7035618027542651</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H11">
-        <v>0.7035618027542651</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I11">
-        <v>0.001192387161347214</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J11">
-        <v>0.001192387161347214</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.0067970736347</v>
+        <v>7.374131</v>
       </c>
       <c r="N11">
-        <v>25.0067970736347</v>
+        <v>14.748262</v>
       </c>
       <c r="O11">
-        <v>0.4025489340823427</v>
+        <v>0.1125828061103835</v>
       </c>
       <c r="P11">
-        <v>0.4025489340823427</v>
+        <v>0.08631049709421805</v>
       </c>
       <c r="Q11">
-        <v>17.59382723023651</v>
+        <v>2182.552840507833</v>
       </c>
       <c r="R11">
-        <v>17.59382723023651</v>
+        <v>13095.317043047</v>
       </c>
       <c r="S11">
-        <v>0.0004799941808137914</v>
+        <v>0.0546024677400715</v>
       </c>
       <c r="T11">
-        <v>0.0004799941808137914</v>
+        <v>0.0463058905176169</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H12">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I12">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J12">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.6391421668904</v>
+        <v>18.2502405</v>
       </c>
       <c r="N12">
-        <v>11.6391421668904</v>
+        <v>36.500481</v>
       </c>
       <c r="O12">
-        <v>0.1873620303759107</v>
+        <v>0.2786312431497853</v>
       </c>
       <c r="P12">
-        <v>0.1873620303759107</v>
+        <v>0.2136098924258371</v>
       </c>
       <c r="Q12">
-        <v>8.188855845450593</v>
+        <v>3.299485313649</v>
       </c>
       <c r="R12">
-        <v>8.188855845450593</v>
+        <v>19.796911881894</v>
       </c>
       <c r="S12">
-        <v>0.0002234080795441826</v>
+        <v>8.254555722712299E-05</v>
       </c>
       <c r="T12">
-        <v>0.0002234080795441826</v>
+        <v>7.000316457986212E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1210,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H13">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I13">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J13">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.23307801840441</v>
+        <v>27.08897866666667</v>
       </c>
       <c r="N13">
-        <v>7.23307801840441</v>
+        <v>81.26693600000002</v>
       </c>
       <c r="O13">
-        <v>0.11643505715144</v>
+        <v>0.4135745938006323</v>
       </c>
       <c r="P13">
-        <v>0.11643505715144</v>
+        <v>0.4755943204347743</v>
       </c>
       <c r="Q13">
-        <v>5.088917410090854</v>
+        <v>4.89745257178489</v>
       </c>
       <c r="R13">
-        <v>5.088917410090854</v>
+        <v>44.07707314606401</v>
       </c>
       <c r="S13">
-        <v>0.0001388356672781062</v>
+        <v>0.0001225230340802165</v>
       </c>
       <c r="T13">
-        <v>0.0001388356672781062</v>
+        <v>0.0001558593897902092</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>131.008911593228</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H14">
-        <v>131.008911593228</v>
+        <v>0.542374</v>
       </c>
       <c r="I14">
-        <v>0.2220321563710563</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J14">
-        <v>0.2220321563710563</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>18.2421187233098</v>
+        <v>0.01819633333333333</v>
       </c>
       <c r="N14">
-        <v>18.2421187233098</v>
+        <v>0.054589</v>
       </c>
       <c r="O14">
-        <v>0.2936539783903066</v>
+        <v>0.0002778082281948308</v>
       </c>
       <c r="P14">
-        <v>0.2936539783903066</v>
+        <v>0.0003194684042008658</v>
       </c>
       <c r="Q14">
-        <v>2389.880119095263</v>
+        <v>0.003289739365111111</v>
       </c>
       <c r="R14">
-        <v>2389.880119095263</v>
+        <v>0.029607654286</v>
       </c>
       <c r="S14">
-        <v>0.06520062604893935</v>
+        <v>8.230173594098512E-08</v>
       </c>
       <c r="T14">
-        <v>0.06520062604893935</v>
+        <v>1.04694586113813E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>131.008911593228</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H15">
-        <v>131.008911593228</v>
+        <v>0.542374</v>
       </c>
       <c r="I15">
-        <v>0.2220321563710563</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J15">
-        <v>0.2220321563710563</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.0067970736347</v>
+        <v>12.76807333333333</v>
       </c>
       <c r="N15">
-        <v>25.0067970736347</v>
+        <v>38.30422</v>
       </c>
       <c r="O15">
-        <v>0.4025489340823427</v>
+        <v>0.1949335487110041</v>
       </c>
       <c r="P15">
-        <v>0.4025489340823427</v>
+        <v>0.2241658216409695</v>
       </c>
       <c r="Q15">
-        <v>3276.113267049601</v>
+        <v>2.308357002031111</v>
       </c>
       <c r="R15">
-        <v>3276.113267049601</v>
+        <v>20.77521301828</v>
       </c>
       <c r="S15">
-        <v>0.08937880787917274</v>
+        <v>5.77497994076719E-05</v>
       </c>
       <c r="T15">
-        <v>0.08937880787917274</v>
+        <v>7.34625008575434E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>131.008911593228</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H16">
-        <v>131.008911593228</v>
+        <v>0.542374</v>
       </c>
       <c r="I16">
-        <v>0.2220321563710563</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J16">
-        <v>0.2220321563710563</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.6391421668904</v>
+        <v>7.374131</v>
       </c>
       <c r="N16">
-        <v>11.6391421668904</v>
+        <v>14.748262</v>
       </c>
       <c r="O16">
-        <v>0.1873620303759107</v>
+        <v>0.1125828061103835</v>
       </c>
       <c r="P16">
-        <v>0.1873620303759107</v>
+        <v>0.08631049709421805</v>
       </c>
       <c r="Q16">
-        <v>1524.831347163157</v>
+        <v>1.333178975664667</v>
       </c>
       <c r="R16">
-        <v>1524.831347163157</v>
+        <v>7.999073853988</v>
       </c>
       <c r="S16">
-        <v>0.0416003956264228</v>
+        <v>3.335308115313887E-05</v>
       </c>
       <c r="T16">
-        <v>0.0416003956264228</v>
+        <v>2.828524402330278E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,309 +1458,929 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H17">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I17">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J17">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.23307801840441</v>
+        <v>18.2502405</v>
       </c>
       <c r="N17">
-        <v>7.23307801840441</v>
+        <v>36.500481</v>
       </c>
       <c r="O17">
-        <v>0.11643505715144</v>
+        <v>0.2786312431497853</v>
       </c>
       <c r="P17">
-        <v>0.11643505715144</v>
+        <v>0.2136098924258371</v>
       </c>
       <c r="Q17">
-        <v>947.5976786600642</v>
+        <v>13.482766674666</v>
       </c>
       <c r="R17">
-        <v>947.5976786600642</v>
+        <v>80.896600047996</v>
       </c>
       <c r="S17">
-        <v>0.0258523268165214</v>
+        <v>0.0003373079078484373</v>
       </c>
       <c r="T17">
-        <v>0.0258523268165214</v>
+        <v>0.0002860556252862079</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>29.6430416415111</v>
+        <v>0.738772</v>
       </c>
       <c r="H18">
-        <v>29.6430416415111</v>
+        <v>2.216316</v>
       </c>
       <c r="I18">
-        <v>0.05023863168558636</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J18">
-        <v>0.05023863168558636</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.2421187233098</v>
+        <v>27.08897866666667</v>
       </c>
       <c r="N18">
-        <v>18.2421187233098</v>
+        <v>81.26693600000002</v>
       </c>
       <c r="O18">
-        <v>0.2936539783903066</v>
+        <v>0.4135745938006323</v>
       </c>
       <c r="P18">
-        <v>0.2936539783903066</v>
+        <v>0.4755943204347743</v>
       </c>
       <c r="Q18">
-        <v>540.7518849444617</v>
+        <v>20.01257894753067</v>
       </c>
       <c r="R18">
-        <v>540.7518849444617</v>
+        <v>180.113210527776</v>
       </c>
       <c r="S18">
-        <v>0.01475277406335775</v>
+        <v>0.0005006688388464955</v>
       </c>
       <c r="T18">
-        <v>0.01475277406335775</v>
+        <v>0.0006368919958225822</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>29.6430416415111</v>
+        <v>0.738772</v>
       </c>
       <c r="H19">
-        <v>29.6430416415111</v>
+        <v>2.216316</v>
       </c>
       <c r="I19">
-        <v>0.05023863168558636</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J19">
-        <v>0.05023863168558636</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>25.0067970736347</v>
+        <v>0.01819633333333333</v>
       </c>
       <c r="N19">
-        <v>25.0067970736347</v>
+        <v>0.054589</v>
       </c>
       <c r="O19">
-        <v>0.4025489340823427</v>
+        <v>0.0002778082281948308</v>
       </c>
       <c r="P19">
-        <v>0.4025489340823427</v>
+        <v>0.0003194684042008658</v>
       </c>
       <c r="Q19">
-        <v>741.2775269745714</v>
+        <v>0.01344294156933333</v>
       </c>
       <c r="R19">
-        <v>741.2775269745714</v>
+        <v>0.120986474124</v>
       </c>
       <c r="S19">
-        <v>0.02022350763478819</v>
+        <v>3.363115750271591E-07</v>
       </c>
       <c r="T19">
-        <v>0.02022350763478819</v>
+        <v>4.278160205272035E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>29.6430416415111</v>
+        <v>0.738772</v>
       </c>
       <c r="H20">
-        <v>29.6430416415111</v>
+        <v>2.216316</v>
       </c>
       <c r="I20">
-        <v>0.05023863168558636</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J20">
-        <v>0.05023863168558636</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.6391421668904</v>
+        <v>12.76807333333333</v>
       </c>
       <c r="N20">
-        <v>11.6391421668904</v>
+        <v>38.30422</v>
       </c>
       <c r="O20">
-        <v>0.1873620303759107</v>
+        <v>0.1949335487110041</v>
       </c>
       <c r="P20">
-        <v>0.1873620303759107</v>
+        <v>0.2241658216409695</v>
       </c>
       <c r="Q20">
-        <v>345.0195759245998</v>
+        <v>9.432695072613333</v>
       </c>
       <c r="R20">
-        <v>345.0195759245998</v>
+        <v>84.89425565352001</v>
       </c>
       <c r="S20">
-        <v>0.009412812035919019</v>
+        <v>0.0002359844026889448</v>
       </c>
       <c r="T20">
-        <v>0.009412812035919019</v>
+        <v>0.0003001915948231058</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.738772</v>
+      </c>
+      <c r="H21">
+        <v>2.216316</v>
+      </c>
+      <c r="I21">
+        <v>0.001210588963518025</v>
+      </c>
+      <c r="J21">
+        <v>0.00133914970902166</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.374131</v>
+      </c>
+      <c r="N21">
+        <v>14.748262</v>
+      </c>
+      <c r="O21">
+        <v>0.1125828061103835</v>
+      </c>
+      <c r="P21">
+        <v>0.08631049709421805</v>
+      </c>
+      <c r="Q21">
+        <v>5.447801507132</v>
+      </c>
+      <c r="R21">
+        <v>32.686809042792</v>
+      </c>
+      <c r="S21">
+        <v>0.00013629150255912</v>
+      </c>
+      <c r="T21">
+        <v>0.0001155826770692369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>137.6068803333333</v>
+      </c>
+      <c r="H22">
+        <v>412.820641</v>
+      </c>
+      <c r="I22">
+        <v>0.225489556501436</v>
+      </c>
+      <c r="J22">
+        <v>0.2494358391462612</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>18.2502405</v>
+      </c>
+      <c r="N22">
+        <v>36.500481</v>
+      </c>
+      <c r="O22">
+        <v>0.2786312431497853</v>
+      </c>
+      <c r="P22">
+        <v>0.2136098924258371</v>
+      </c>
+      <c r="Q22">
+        <v>2511.358660538053</v>
+      </c>
+      <c r="R22">
+        <v>15068.15196322832</v>
+      </c>
+      <c r="S22">
+        <v>0.06282843544528885</v>
+      </c>
+      <c r="T22">
+        <v>0.05328196276718127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>137.6068803333333</v>
+      </c>
+      <c r="H23">
+        <v>412.820641</v>
+      </c>
+      <c r="I23">
+        <v>0.225489556501436</v>
+      </c>
+      <c r="J23">
+        <v>0.2494358391462612</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>27.08897866666667</v>
+      </c>
+      <c r="N23">
+        <v>81.26693600000002</v>
+      </c>
+      <c r="O23">
+        <v>0.4135745938006323</v>
+      </c>
+      <c r="P23">
+        <v>0.4755943204347743</v>
+      </c>
+      <c r="Q23">
+        <v>3727.62984573622</v>
+      </c>
+      <c r="R23">
+        <v>33548.66861162598</v>
+      </c>
+      <c r="S23">
+        <v>0.09325675173636609</v>
+      </c>
+      <c r="T23">
+        <v>0.1186302684108438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>137.6068803333333</v>
+      </c>
+      <c r="H24">
+        <v>412.820641</v>
+      </c>
+      <c r="I24">
+        <v>0.225489556501436</v>
+      </c>
+      <c r="J24">
+        <v>0.2494358391462612</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.01819633333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.054589</v>
+      </c>
+      <c r="O24">
+        <v>0.0002778082281948308</v>
+      </c>
+      <c r="P24">
+        <v>0.0003194684042008658</v>
+      </c>
+      <c r="Q24">
+        <v>2.503940663505444</v>
+      </c>
+      <c r="R24">
+        <v>22.535465971549</v>
+      </c>
+      <c r="S24">
+        <v>6.264285416810211E-05</v>
+      </c>
+      <c r="T24">
+        <v>7.968686948255992E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>137.6068803333333</v>
+      </c>
+      <c r="H25">
+        <v>412.820641</v>
+      </c>
+      <c r="I25">
+        <v>0.225489556501436</v>
+      </c>
+      <c r="J25">
+        <v>0.2494358391462612</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.76807333333333</v>
+      </c>
+      <c r="N25">
+        <v>38.30422</v>
+      </c>
+      <c r="O25">
+        <v>0.1949335487110041</v>
+      </c>
+      <c r="P25">
+        <v>0.2241658216409695</v>
+      </c>
+      <c r="Q25">
+        <v>1756.974739267224</v>
+      </c>
+      <c r="R25">
+        <v>15812.77265340502</v>
+      </c>
+      <c r="S25">
+        <v>0.04395547944609537</v>
+      </c>
+      <c r="T25">
+        <v>0.05591498982892637</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>137.6068803333333</v>
+      </c>
+      <c r="H26">
+        <v>412.820641</v>
+      </c>
+      <c r="I26">
+        <v>0.225489556501436</v>
+      </c>
+      <c r="J26">
+        <v>0.2494358391462612</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>7.374131</v>
+      </c>
+      <c r="N26">
+        <v>14.748262</v>
+      </c>
+      <c r="O26">
+        <v>0.1125828061103835</v>
+      </c>
+      <c r="P26">
+        <v>0.08631049709421805</v>
+      </c>
+      <c r="Q26">
+        <v>1014.731162079324</v>
+      </c>
+      <c r="R26">
+        <v>6088.386972475942</v>
+      </c>
+      <c r="S26">
+        <v>0.02538624701951754</v>
+      </c>
+      <c r="T26">
+        <v>0.02152893126982722</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>30.755622</v>
+      </c>
+      <c r="H27">
+        <v>61.511244</v>
+      </c>
+      <c r="I27">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J27">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>18.2502405</v>
+      </c>
+      <c r="N27">
+        <v>36.500481</v>
+      </c>
+      <c r="O27">
+        <v>0.2786312431497853</v>
+      </c>
+      <c r="P27">
+        <v>0.2136098924258371</v>
+      </c>
+      <c r="Q27">
+        <v>561.297498227091</v>
+      </c>
+      <c r="R27">
+        <v>2245.189992908364</v>
+      </c>
+      <c r="S27">
+        <v>0.01404237641843136</v>
+      </c>
+      <c r="T27">
+        <v>0.00793913745357273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>30.755622</v>
+      </c>
+      <c r="H28">
+        <v>61.511244</v>
+      </c>
+      <c r="I28">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J28">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>27.08897866666667</v>
+      </c>
+      <c r="N28">
+        <v>81.26693600000002</v>
+      </c>
+      <c r="O28">
+        <v>0.4135745938006323</v>
+      </c>
+      <c r="P28">
+        <v>0.4755943204347743</v>
+      </c>
+      <c r="Q28">
+        <v>833.1383882380642</v>
+      </c>
+      <c r="R28">
+        <v>4998.830329428385</v>
+      </c>
+      <c r="S28">
+        <v>0.02084321218825528</v>
+      </c>
+      <c r="T28">
+        <v>0.01767618830378422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>30.755622</v>
+      </c>
+      <c r="H29">
+        <v>61.511244</v>
+      </c>
+      <c r="I29">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J29">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.01819633333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.054589</v>
+      </c>
+      <c r="O29">
+        <v>0.0002778082281948308</v>
+      </c>
+      <c r="P29">
+        <v>0.0003194684042008658</v>
+      </c>
+      <c r="Q29">
+        <v>0.5596395497859999</v>
+      </c>
+      <c r="R29">
+        <v>3.357837298716</v>
+      </c>
+      <c r="S29">
+        <v>1.400089834991032E-05</v>
+      </c>
+      <c r="T29">
+        <v>1.187353050095646E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>24</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>29.6430416415111</v>
-      </c>
-      <c r="H21">
-        <v>29.6430416415111</v>
-      </c>
-      <c r="I21">
-        <v>0.05023863168558636</v>
-      </c>
-      <c r="J21">
-        <v>0.05023863168558636</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>7.23307801840441</v>
-      </c>
-      <c r="N21">
-        <v>7.23307801840441</v>
-      </c>
-      <c r="O21">
-        <v>0.11643505715144</v>
-      </c>
-      <c r="P21">
-        <v>0.11643505715144</v>
-      </c>
-      <c r="Q21">
-        <v>214.4104328958605</v>
-      </c>
-      <c r="R21">
-        <v>214.4104328958605</v>
-      </c>
-      <c r="S21">
-        <v>0.005849537951521391</v>
-      </c>
-      <c r="T21">
-        <v>0.005849537951521391</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>30.755622</v>
+      </c>
+      <c r="H30">
+        <v>61.511244</v>
+      </c>
+      <c r="I30">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J30">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>12.76807333333333</v>
+      </c>
+      <c r="N30">
+        <v>38.30422</v>
+      </c>
+      <c r="O30">
+        <v>0.1949335487110041</v>
+      </c>
+      <c r="P30">
+        <v>0.2241658216409695</v>
+      </c>
+      <c r="Q30">
+        <v>392.69003710828</v>
+      </c>
+      <c r="R30">
+        <v>2356.14022264968</v>
+      </c>
+      <c r="S30">
+        <v>0.009824204337734741</v>
+      </c>
+      <c r="T30">
+        <v>0.008331464662942104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>30.755622</v>
+      </c>
+      <c r="H31">
+        <v>61.511244</v>
+      </c>
+      <c r="I31">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J31">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>7.374131</v>
+      </c>
+      <c r="N31">
+        <v>14.748262</v>
+      </c>
+      <c r="O31">
+        <v>0.1125828061103835</v>
+      </c>
+      <c r="P31">
+        <v>0.08631049709421805</v>
+      </c>
+      <c r="Q31">
+        <v>226.795985614482</v>
+      </c>
+      <c r="R31">
+        <v>907.183942457928</v>
+      </c>
+      <c r="S31">
+        <v>0.005673915544336177</v>
+      </c>
+      <c r="T31">
+        <v>0.003207861266795456</v>
       </c>
     </row>
   </sheetData>
